--- a/test.xlsx
+++ b/test.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\爬虫\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0E2B5A-F7A8-4D0A-89C2-773E5DA6D4AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B08K4353V1" sheetId="1" r:id="rId1"/>
@@ -26,310 +27,310 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
-    <t>green basketball tights</t>
-  </si>
-  <si>
-    <t>bra ball</t>
-  </si>
-  <si>
-    <t>skinny sport leggings</t>
-  </si>
-  <si>
-    <t>exercise set for women</t>
-  </si>
-  <si>
-    <t>girls yoga set</t>
-  </si>
-  <si>
-    <t>butt enhance equipment</t>
-  </si>
-  <si>
-    <t>green denim pants women</t>
-  </si>
-  <si>
-    <t>basketball compression pants women</t>
-  </si>
-  <si>
-    <t>sport leggings</t>
-  </si>
-  <si>
-    <t>women athletic vests</t>
-  </si>
-  <si>
-    <t>high waist outfits for women</t>
-  </si>
-  <si>
-    <t>butt lifting jeggings</t>
-  </si>
-  <si>
-    <t>work out sets for women</t>
-  </si>
-  <si>
-    <t>work out clothing sets</t>
-  </si>
-  <si>
-    <t>high test girls</t>
-  </si>
-  <si>
-    <t>women basketball pants</t>
-  </si>
-  <si>
-    <t>leggings set</t>
-  </si>
-  <si>
-    <t>green leggings</t>
-  </si>
-  <si>
-    <t>yoga stretch ball</t>
-  </si>
-  <si>
-    <t>metallic dance tops for women</t>
-  </si>
-  <si>
-    <t>metallic pants for girls</t>
-  </si>
-  <si>
-    <t>womens yoga set</t>
-  </si>
-  <si>
-    <t>metallic set</t>
-  </si>
-  <si>
-    <t>basketball compression tights for women</t>
-  </si>
-  <si>
-    <t>girls underwear bra set</t>
-  </si>
-  <si>
-    <t>basketball training ball</t>
-  </si>
-  <si>
-    <t>exercise clothes for women set</t>
-  </si>
-  <si>
-    <t>purple yoga ball</t>
-  </si>
-  <si>
-    <t>high neck workout top</t>
-  </si>
-  <si>
-    <t>high waist leggings</t>
-  </si>
-  <si>
-    <t>waist exercise equipment</t>
-  </si>
-  <si>
-    <t>womens metallic leggings</t>
-  </si>
-  <si>
-    <t>high leggings</t>
-  </si>
-  <si>
-    <t>training leggings for women</t>
-  </si>
-  <si>
-    <t>girls athletic leggings</t>
-  </si>
-  <si>
-    <t>green workout leggings</t>
-  </si>
-  <si>
-    <t>lounge clothes for women sets</t>
-  </si>
-  <si>
-    <t>sweat proof women</t>
-  </si>
-  <si>
-    <t>seamless leggings for women</t>
-  </si>
-  <si>
-    <t>green stretching strap</t>
-  </si>
-  <si>
-    <t>female workout leggings</t>
-  </si>
-  <si>
-    <t>basketball pants women</t>
-  </si>
-  <si>
-    <t>athletic leggings for women high waist</t>
-  </si>
-  <si>
-    <t>booty workout equipment</t>
-  </si>
-  <si>
-    <t>padded sports bras for women</t>
-  </si>
-  <si>
-    <t>womens sports bras</t>
-  </si>
-  <si>
-    <t>sports bra high impact</t>
-  </si>
-  <si>
-    <t>front close sports bras for women</t>
-  </si>
-  <si>
-    <t>womans leggings</t>
-  </si>
-  <si>
-    <t>leggings green</t>
-  </si>
-  <si>
-    <t>leggings set for women</t>
-  </si>
-  <si>
-    <t>green leggings for women</t>
-  </si>
-  <si>
-    <t>push up sports bras for women</t>
-  </si>
-  <si>
-    <t>leggings sport for women</t>
-  </si>
-  <si>
-    <t>high waist workout leggings for women</t>
-  </si>
-  <si>
-    <t>high support sports bra</t>
-  </si>
-  <si>
-    <t>high neck sports bra</t>
-  </si>
-  <si>
-    <t>lululemon sports bra</t>
-  </si>
-  <si>
-    <t>tback sports bra</t>
-  </si>
-  <si>
-    <t>long sports bra</t>
-  </si>
-  <si>
-    <t>matching leggings and sports bra</t>
-  </si>
-  <si>
-    <t>adidas sports bras for women</t>
-  </si>
-  <si>
-    <t>red sports bra</t>
-  </si>
-  <si>
-    <t>t back sports bras for women</t>
-  </si>
-  <si>
-    <t>crossback sports bra</t>
-  </si>
-  <si>
-    <t>womens green leggings</t>
-  </si>
-  <si>
-    <t>no bounce sports bras for women</t>
-  </si>
-  <si>
-    <t>pull over sports bras for women</t>
-  </si>
-  <si>
-    <t>seamless workout sets for women 2 piece</t>
-  </si>
-  <si>
-    <t>muscle leggings</t>
-  </si>
-  <si>
-    <t>compression basketball pants</t>
-  </si>
-  <si>
-    <t>dance stretch equipment</t>
-  </si>
-  <si>
-    <t>booty leggings</t>
-  </si>
-  <si>
-    <t>metallic clothes</t>
-  </si>
-  <si>
-    <t>basketball cart</t>
-  </si>
-  <si>
-    <t>boxing gear for women</t>
-  </si>
-  <si>
-    <t>leggings for women</t>
-  </si>
-  <si>
-    <t>seamless leggings</t>
-  </si>
-  <si>
-    <t>yoga outfits for women</t>
-  </si>
-  <si>
-    <t>2 pcs set for women</t>
-  </si>
-  <si>
-    <t>purple bra set</t>
-  </si>
-  <si>
-    <t>yoga black</t>
-  </si>
-  <si>
-    <t>army green sports bra</t>
-  </si>
-  <si>
-    <t>mint green sports bra</t>
-  </si>
-  <si>
-    <t>black high waist legging</t>
-  </si>
-  <si>
-    <t>legging outfit set</t>
-  </si>
-  <si>
-    <t>black sport legging</t>
-  </si>
-  <si>
-    <t>purple legging high waist</t>
-  </si>
-  <si>
-    <t>purple n</t>
-  </si>
-  <si>
-    <t>legging sport bra</t>
-  </si>
-  <si>
-    <t>green yoga legging</t>
-  </si>
-  <si>
-    <t>yoga set legging bra</t>
-  </si>
-  <si>
-    <t>yoga seamless outfit</t>
-  </si>
-  <si>
-    <t>seamless workout legging high waist</t>
-  </si>
-  <si>
-    <t>purple seamless legging</t>
-  </si>
-  <si>
-    <t>full mesh leggings</t>
-  </si>
-  <si>
-    <t>2 yoga balls</t>
-  </si>
-  <si>
-    <t>womens workout set</t>
-  </si>
-  <si>
-    <t>tight neck muscles</t>
-  </si>
-  <si>
-    <t>green exercise ball</t>
+    <t>workout legging set</t>
+  </si>
+  <si>
+    <t>black yoga legging</t>
+  </si>
+  <si>
+    <t>purple workout set</t>
+  </si>
+  <si>
+    <t>black seamless</t>
+  </si>
+  <si>
+    <t>legging outfit</t>
+  </si>
+  <si>
+    <t>high waist black</t>
+  </si>
+  <si>
+    <t>high bra</t>
+  </si>
+  <si>
+    <t>green legging</t>
+  </si>
+  <si>
+    <t>yoga waist legging</t>
+  </si>
+  <si>
+    <t>high waist workout legging</t>
+  </si>
+  <si>
+    <t>purple 2</t>
+  </si>
+  <si>
+    <t>black yoga outfit</t>
+  </si>
+  <si>
+    <t>green workout set</t>
+  </si>
+  <si>
+    <t>black workout set</t>
+  </si>
+  <si>
+    <t>petite sweat pants sets</t>
+  </si>
+  <si>
+    <t>high n</t>
+  </si>
+  <si>
+    <t>high yoga</t>
+  </si>
+  <si>
+    <t>seamless set</t>
+  </si>
+  <si>
+    <t>seamless yoga set</t>
+  </si>
+  <si>
+    <t>green workout legging</t>
+  </si>
+  <si>
+    <t>high waist yoga legging</t>
+  </si>
+  <si>
+    <t>green n</t>
+  </si>
+  <si>
+    <t>yoga bra legging set</t>
+  </si>
+  <si>
+    <t>sport green</t>
+  </si>
+  <si>
+    <t>high waist seamless legging</t>
+  </si>
+  <si>
+    <t>yoga legging green</t>
+  </si>
+  <si>
+    <t>seamless workout legging</t>
+  </si>
+  <si>
+    <t>legging sport bra set</t>
+  </si>
+  <si>
+    <t>waist legging</t>
+  </si>
+  <si>
+    <t>purple workout legging</t>
+  </si>
+  <si>
+    <t>seamless yoga legging</t>
+  </si>
+  <si>
+    <t>high waist sport legging</t>
+  </si>
+  <si>
+    <t>high waist black yoga legging</t>
+  </si>
+  <si>
+    <t>black seamless legging</t>
+  </si>
+  <si>
+    <t>legging bra</t>
+  </si>
+  <si>
+    <t>sport yoga legging</t>
+  </si>
+  <si>
+    <t>high waist legging set</t>
+  </si>
+  <si>
+    <t>sport bra legging</t>
+  </si>
+  <si>
+    <t>yoga legging sport bra set</t>
+  </si>
+  <si>
+    <t>ready 2</t>
+  </si>
+  <si>
+    <t>yoga set 2</t>
+  </si>
+  <si>
+    <t>high legging</t>
+  </si>
+  <si>
+    <t>workout legging sport bra set</t>
+  </si>
+  <si>
+    <t>black workout legging</t>
+  </si>
+  <si>
+    <t>legging yoga workout</t>
+  </si>
+  <si>
+    <t>waist black</t>
+  </si>
+  <si>
+    <t>high waist black legging</t>
+  </si>
+  <si>
+    <t>seamless workout yoga bra</t>
+  </si>
+  <si>
+    <t>seamless workout bra</t>
+  </si>
+  <si>
+    <t>bra legging workout set</t>
+  </si>
+  <si>
+    <t>seamless legging set</t>
+  </si>
+  <si>
+    <t>black workout</t>
+  </si>
+  <si>
+    <t>apparel bra</t>
+  </si>
+  <si>
+    <t>sport 2</t>
+  </si>
+  <si>
+    <t>sport bra outfit</t>
+  </si>
+  <si>
+    <t>black legging yoga waist</t>
+  </si>
+  <si>
+    <t>high yoga legging</t>
+  </si>
+  <si>
+    <t>booty pants for women 2 pc</t>
+  </si>
+  <si>
+    <t>breast compression wrap</t>
+  </si>
+  <si>
+    <t>denim bra top</t>
+  </si>
+  <si>
+    <t>leggings and sports bra set</t>
+  </si>
+  <si>
+    <t>sweat proof bra</t>
+  </si>
+  <si>
+    <t>seamless spandex</t>
+  </si>
+  <si>
+    <t>highwaist jean for women</t>
+  </si>
+  <si>
+    <t>womens work out gear</t>
+  </si>
+  <si>
+    <t>waist pack set</t>
+  </si>
+  <si>
+    <t>girls dance leggings</t>
+  </si>
+  <si>
+    <t>sports bra leggings set</t>
+  </si>
+  <si>
+    <t>work outfit</t>
+  </si>
+  <si>
+    <t>seamless leggings for women workout</t>
+  </si>
+  <si>
+    <t>leggings high waist</t>
+  </si>
+  <si>
+    <t>dance leggings</t>
+  </si>
+  <si>
+    <t>spandex underwear for women</t>
+  </si>
+  <si>
+    <t>purple leggings for women</t>
+  </si>
+  <si>
+    <t>belly dance clothes for women</t>
+  </si>
+  <si>
+    <t>denim yoga pants for women</t>
+  </si>
+  <si>
+    <t>exercise women outfits</t>
+  </si>
+  <si>
+    <t>sports outfits</t>
+  </si>
+  <si>
+    <t>leggings basketball</t>
+  </si>
+  <si>
+    <t>womens slim work pants</t>
+  </si>
+  <si>
+    <t>activewear sets for women</t>
+  </si>
+  <si>
+    <t>metallic bra</t>
+  </si>
+  <si>
+    <t>women training tights</t>
+  </si>
+  <si>
+    <t>legging sets</t>
+  </si>
+  <si>
+    <t>metallic leggings</t>
+  </si>
+  <si>
+    <t>compression camisoles for women</t>
+  </si>
+  <si>
+    <t>cloth training pants for girls</t>
+  </si>
+  <si>
+    <t>workout outfits for women</t>
+  </si>
+  <si>
+    <t>sports bra sets for women</t>
+  </si>
+  <si>
+    <t>yoga outfits for women set</t>
+  </si>
+  <si>
+    <t>yoga leggings for women high waist</t>
+  </si>
+  <si>
+    <t>workout legging for women</t>
+  </si>
+  <si>
+    <t>womens sports leggings</t>
+  </si>
+  <si>
+    <t>seamless leggings workout</t>
+  </si>
+  <si>
+    <t>leggings for women set</t>
+  </si>
+  <si>
+    <t>star workout pants</t>
+  </si>
+  <si>
+    <t>zumba set</t>
+  </si>
+  <si>
+    <t>2 leggings</t>
+  </si>
+  <si>
+    <t>leggings sets</t>
+  </si>
+  <si>
+    <t>matching activewear sets for women</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -339,15 +340,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -383,17 +384,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -404,7 +402,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
         </patternFill>
       </fill>
     </dxf>
@@ -683,11 +688,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="N99" sqref="N99"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -978,192 +983,192 @@
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
+      <c r="A58" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+      <c r="A59" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
+      <c r="A60" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
+      <c r="A61" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
+      <c r="A62" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
+      <c r="A63" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
+      <c r="A64" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
+      <c r="A65" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
+      <c r="A66" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
+      <c r="A67" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
+      <c r="A68" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
+      <c r="A69" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
+      <c r="A70" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
+      <c r="A71" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
+      <c r="A72" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
+      <c r="A73" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
+      <c r="A74" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
+      <c r="A75" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
+      <c r="A76" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
+      <c r="A77" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
+      <c r="A78" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
+      <c r="A79" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
+      <c r="A80" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
+      <c r="A81" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
+      <c r="A82" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
+      <c r="A83" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
+      <c r="A84" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
+      <c r="A85" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
+      <c r="A86" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
+      <c r="A87" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
+      <c r="A88" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
+      <c r="A89" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
+      <c r="A90" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
+      <c r="A91" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
+      <c r="A92" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
+      <c r="A93" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
+      <c r="A94" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
+      <c r="A95" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1193,11 +1198,11 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A69">
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A57">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A96:A107">
+  <conditionalFormatting sqref="A58:A100">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\爬虫\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\READYPARD-VM\readypard\github\indexed\keyword\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0F8029-8199-4E5D-B078-90F92D5C9611}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="B08K44C9Y9" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,310 +26,310 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
-    <t>sporty outfits</t>
-  </si>
-  <si>
-    <t>cropped two piece</t>
-  </si>
-  <si>
-    <t>3 piece lounge sets for women</t>
-  </si>
-  <si>
-    <t>cropped workout top</t>
-  </si>
-  <si>
-    <t>yoga outfit</t>
-  </si>
-  <si>
-    <t>cropped shirts</t>
-  </si>
-  <si>
-    <t>the struggle is real sweatshirt womens</t>
-  </si>
-  <si>
-    <t>seamless tops for women workout</t>
-  </si>
-  <si>
-    <t>boxing outfit</t>
-  </si>
-  <si>
-    <t>cropped outfits</t>
-  </si>
-  <si>
-    <t>spandex sweatsuit women</t>
-  </si>
-  <si>
-    <t>workout sets for women 2 piece high waist</t>
-  </si>
-  <si>
-    <t>seamless workout set</t>
-  </si>
-  <si>
-    <t>womens shirts for leggings</t>
-  </si>
-  <si>
-    <t>work out outfit</t>
-  </si>
-  <si>
-    <t>yoga pants enhance butt</t>
-  </si>
-  <si>
-    <t>belly dance top</t>
-  </si>
-  <si>
-    <t>yoga outfits for women 2 piece set</t>
-  </si>
-  <si>
-    <t>yoga set</t>
-  </si>
-  <si>
-    <t>womens workout shirts</t>
-  </si>
-  <si>
-    <t>t shirt</t>
-  </si>
-  <si>
-    <t>yoga legging</t>
-  </si>
-  <si>
-    <t>yoga workout</t>
-  </si>
-  <si>
-    <t>yoga shirt</t>
-  </si>
-  <si>
-    <t>cropped top</t>
-  </si>
-  <si>
-    <t>cropped tops for women</t>
-  </si>
-  <si>
-    <t>cropped t shirt</t>
-  </si>
-  <si>
-    <t>workout tops for women</t>
-  </si>
-  <si>
-    <t>workout apparel</t>
-  </si>
-  <si>
-    <t>workout outfits</t>
-  </si>
-  <si>
-    <t>workout outfit set</t>
-  </si>
-  <si>
-    <t>workout set</t>
-  </si>
-  <si>
-    <t>workout legging</t>
-  </si>
-  <si>
-    <t>legging set</t>
-  </si>
-  <si>
-    <t>workout outfit</t>
-  </si>
-  <si>
-    <t>workout shirt</t>
-  </si>
-  <si>
-    <t>sport t shirt</t>
-  </si>
-  <si>
-    <t>sport shirt</t>
-  </si>
-  <si>
-    <t>sport shirts for women</t>
-  </si>
-  <si>
-    <t>2 piece</t>
-  </si>
-  <si>
-    <t>womens yoga tops</t>
-  </si>
-  <si>
-    <t>womens workout set</t>
-  </si>
-  <si>
-    <t>legging sets for women outfits</t>
-  </si>
-  <si>
-    <t>2 piece sets for women</t>
-  </si>
-  <si>
-    <t>outfit set</t>
-  </si>
-  <si>
-    <t>sports for women</t>
-  </si>
-  <si>
-    <t>sport legging</t>
-  </si>
-  <si>
-    <t>leggings set</t>
-  </si>
-  <si>
-    <t>womans workout tops</t>
-  </si>
-  <si>
-    <t>yoga workout set</t>
-  </si>
-  <si>
-    <t>yoga outfit set</t>
-  </si>
-  <si>
-    <t>workout shirts women</t>
-  </si>
-  <si>
-    <t>sports leggings for women</t>
-  </si>
-  <si>
-    <t>sport set</t>
-  </si>
-  <si>
-    <t>yoga t shirt</t>
-  </si>
-  <si>
-    <t>cropped shirt</t>
-  </si>
-  <si>
-    <t>cropped shirts for women</t>
-  </si>
-  <si>
-    <t>cropped yoga top</t>
-  </si>
-  <si>
-    <t>set 2</t>
-  </si>
-  <si>
-    <t>yoga apparel</t>
-  </si>
-  <si>
-    <t>top set</t>
-  </si>
-  <si>
-    <t>workout top</t>
-  </si>
-  <si>
-    <t>2 piece set</t>
-  </si>
-  <si>
-    <t>2 piece outfit</t>
-  </si>
-  <si>
-    <t>yoga top</t>
-  </si>
-  <si>
-    <t>top for women sport</t>
-  </si>
-  <si>
-    <t>sport top</t>
-  </si>
-  <si>
-    <t>sport outfit</t>
-  </si>
-  <si>
-    <t>shirt set</t>
-  </si>
-  <si>
-    <t>shirt outfit</t>
-  </si>
-  <si>
-    <t>yoga sport</t>
-  </si>
-  <si>
-    <t>nova hoodie</t>
-  </si>
-  <si>
-    <t>workout t shirt</t>
-  </si>
-  <si>
-    <t>t top</t>
-  </si>
-  <si>
-    <t>top legging</t>
-  </si>
-  <si>
-    <t>top shirt</t>
-  </si>
-  <si>
-    <t>shirts workout women</t>
-  </si>
-  <si>
-    <t>2 piece workout sets for women</t>
-  </si>
-  <si>
-    <t>piece set</t>
-  </si>
-  <si>
-    <t>womens sports tops</t>
-  </si>
-  <si>
-    <t>2 piece workout set</t>
-  </si>
-  <si>
-    <t>womens cropped leggings</t>
-  </si>
-  <si>
-    <t>legging and top set</t>
-  </si>
-  <si>
-    <t>women workout sets</t>
-  </si>
-  <si>
-    <t>womens workout top</t>
-  </si>
-  <si>
-    <t>legging outfit</t>
-  </si>
-  <si>
-    <t>top leggings set</t>
-  </si>
-  <si>
-    <t>long sleeve rumper for woman</t>
-  </si>
-  <si>
-    <t>womens cropped workout tops</t>
-  </si>
-  <si>
-    <t>women yoga sets</t>
-  </si>
-  <si>
-    <t>workout outfits for women 2 piece set</t>
-  </si>
-  <si>
-    <t>cropped legging</t>
-  </si>
-  <si>
-    <t>womens sports top</t>
-  </si>
-  <si>
-    <t>cropped legging for women</t>
-  </si>
-  <si>
-    <t>womens workout sets 2 piece</t>
-  </si>
-  <si>
-    <t>leggings set for women 2 piece</t>
-  </si>
-  <si>
-    <t>workout tops for women set</t>
-  </si>
-  <si>
-    <t>legging outfits for women 2 piece set</t>
-  </si>
-  <si>
-    <t>shirt legging</t>
-  </si>
-  <si>
-    <t>cropped workout legging</t>
+    <t>sport sets for women 2 piece</t>
+  </si>
+  <si>
+    <t>tall womens tops</t>
+  </si>
+  <si>
+    <t>womens workout clothes clearance</t>
+  </si>
+  <si>
+    <t>workout t-shirts for women</t>
+  </si>
+  <si>
+    <t>workout for women clothes</t>
+  </si>
+  <si>
+    <t>womens sets 2 piece outfits</t>
+  </si>
+  <si>
+    <t>womens outfits</t>
+  </si>
+  <si>
+    <t>tops for women</t>
+  </si>
+  <si>
+    <t>womens tops</t>
+  </si>
+  <si>
+    <t>exercise sets for women</t>
+  </si>
+  <si>
+    <t>ladies boxing set</t>
+  </si>
+  <si>
+    <t>yoga sets</t>
+  </si>
+  <si>
+    <t>two piece workout outfits for women</t>
+  </si>
+  <si>
+    <t>womens matching set outfits</t>
+  </si>
+  <si>
+    <t>workout tee women</t>
+  </si>
+  <si>
+    <t>woman outfits</t>
+  </si>
+  <si>
+    <t>workout women</t>
+  </si>
+  <si>
+    <t>cropped athletic leggings</t>
+  </si>
+  <si>
+    <t>women 2 piece sets outfits</t>
+  </si>
+  <si>
+    <t>workout two piece sets for women</t>
+  </si>
+  <si>
+    <t>yoga for women</t>
+  </si>
+  <si>
+    <t>women workout outfits sets</t>
+  </si>
+  <si>
+    <t>la dispute shirt</t>
+  </si>
+  <si>
+    <t>workout cloth for women</t>
+  </si>
+  <si>
+    <t>2 piece set for women outfit</t>
+  </si>
+  <si>
+    <t>sweatsuits for women set</t>
+  </si>
+  <si>
+    <t>two piece yoga set</t>
+  </si>
+  <si>
+    <t>3 piece set outfit for women</t>
+  </si>
+  <si>
+    <t>workouts for women</t>
+  </si>
+  <si>
+    <t>three piece outfits for women</t>
+  </si>
+  <si>
+    <t>work outfits for women gym</t>
+  </si>
+  <si>
+    <t>women workout leggings</t>
+  </si>
+  <si>
+    <t>yoga shirts for women</t>
+  </si>
+  <si>
+    <t>legging outfits</t>
+  </si>
+  <si>
+    <t>workout t shirts</t>
+  </si>
+  <si>
+    <t>workout t shirts for women</t>
+  </si>
+  <si>
+    <t>workout shirt women</t>
+  </si>
+  <si>
+    <t>2 piece outfit for women</t>
+  </si>
+  <si>
+    <t>yoga shirt for women</t>
+  </si>
+  <si>
+    <t>yoga shirt women</t>
+  </si>
+  <si>
+    <t>leggings and tops for women</t>
+  </si>
+  <si>
+    <t>womens t shirts workout</t>
+  </si>
+  <si>
+    <t>womens cropped tops</t>
+  </si>
+  <si>
+    <t>t shirts for women yoga</t>
+  </si>
+  <si>
+    <t>cropped t shirts</t>
+  </si>
+  <si>
+    <t>women leggings shirts</t>
+  </si>
+  <si>
+    <t>women cropped leggings</t>
+  </si>
+  <si>
+    <t>womens sweatsuit</t>
+  </si>
+  <si>
+    <t>workout sets</t>
+  </si>
+  <si>
+    <t>yoga workout sets</t>
+  </si>
+  <si>
+    <t>sweatsuits sets for women 2 piece</t>
+  </si>
+  <si>
+    <t>leggings 7 pack</t>
+  </si>
+  <si>
+    <t>seamless yoga set</t>
+  </si>
+  <si>
+    <t>leggings cropped</t>
+  </si>
+  <si>
+    <t>womens leggings 2 pack</t>
+  </si>
+  <si>
+    <t>legging set for women</t>
+  </si>
+  <si>
+    <t>women spandex tops</t>
+  </si>
+  <si>
+    <t>workout set for women</t>
+  </si>
+  <si>
+    <t>spandex leggings for women</t>
+  </si>
+  <si>
+    <t>set for workout</t>
+  </si>
+  <si>
+    <t>leggings outfits for women with top</t>
+  </si>
+  <si>
+    <t>womens two piece sweatsuit</t>
+  </si>
+  <si>
+    <t>badminton outfits for women</t>
+  </si>
+  <si>
+    <t>women sweatsuits</t>
+  </si>
+  <si>
+    <t>legging sets for women 2 piece</t>
+  </si>
+  <si>
+    <t>work out sets for women</t>
+  </si>
+  <si>
+    <t>exercise women outfits</t>
+  </si>
+  <si>
+    <t>polyester sport shirt</t>
+  </si>
+  <si>
+    <t>workout tee shirts for women</t>
+  </si>
+  <si>
+    <t>womens workout</t>
+  </si>
+  <si>
+    <t>workout sets for women 2 piece pants</t>
+  </si>
+  <si>
+    <t>cropped workout tops</t>
+  </si>
+  <si>
+    <t>matching workout sets for women</t>
+  </si>
+  <si>
+    <t>gym sets for women</t>
+  </si>
+  <si>
+    <t>two piece legging set for women</t>
+  </si>
+  <si>
+    <t>women legging sets outfits</t>
+  </si>
+  <si>
+    <t>exercise outfits for women set</t>
+  </si>
+  <si>
+    <t>yoga leggings for women</t>
+  </si>
+  <si>
+    <t>sport t shirts for women</t>
+  </si>
+  <si>
+    <t>big and tall work shirts</t>
+  </si>
+  <si>
+    <t>running set for women</t>
+  </si>
+  <si>
+    <t>workout set clothes for women</t>
+  </si>
+  <si>
+    <t>short sleeve workout tops for women</t>
+  </si>
+  <si>
+    <t>gym leggings</t>
+  </si>
+  <si>
+    <t>womens sweatsuits 2 piece clearance</t>
+  </si>
+  <si>
+    <t>womens gym tee</t>
+  </si>
+  <si>
+    <t>work outfits for women gym set</t>
+  </si>
+  <si>
+    <t>tops for leggings for women</t>
+  </si>
+  <si>
+    <t>t shirt women</t>
+  </si>
+  <si>
+    <t>t shirt for women</t>
+  </si>
+  <si>
+    <t>yoga tops for women</t>
+  </si>
+  <si>
+    <t>sports t shirts women</t>
+  </si>
+  <si>
+    <t>women t shirt</t>
+  </si>
+  <si>
+    <t>womens leggings tops</t>
+  </si>
+  <si>
+    <t>womens legging sets</t>
+  </si>
+  <si>
+    <t>womens leggings shirts</t>
+  </si>
+  <si>
+    <t>sport shirts women</t>
+  </si>
+  <si>
+    <t>sports leggings women</t>
+  </si>
+  <si>
+    <t>yoga workout tops for women</t>
+  </si>
+  <si>
+    <t>workouts shirts for women</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -376,13 +375,41 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{28F17666-88F0-4C90-86E2-6F6996A489A0}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -665,11 +692,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E30:E31"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -677,509 +704,509 @@
     <col min="1" max="1" width="37.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>99</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A100">
+  <conditionalFormatting sqref="A1:A46">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -12,9 +12,9 @@
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="B08K44C9Y9" sheetId="1" r:id="rId1"/>
+    <sheet name="B08K42K3DM" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,267 +24,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>women sport leggings</t>
+    <t>leggings sets</t>
   </si>
   <si>
-    <t>womens tops for leggings</t>
+    <t>high waisted joggers for women</t>
   </si>
   <si>
-    <t>workout leggings and top</t>
+    <t>womens sweater sets</t>
   </si>
   <si>
-    <t>yoga shirts</t>
-  </si>
-  <si>
-    <t>yoga shirts women</t>
-  </si>
-  <si>
-    <t>2 piece womens outfit</t>
-  </si>
-  <si>
-    <t>sports tops women</t>
-  </si>
-  <si>
-    <t>2 piece set for women</t>
-  </si>
-  <si>
-    <t>2 piece sports outfits for women</t>
-  </si>
-  <si>
-    <t>shirts and leggings for women</t>
-  </si>
-  <si>
-    <t>tops set</t>
-  </si>
-  <si>
-    <t>woman workout shirts</t>
-  </si>
-  <si>
-    <t>sports set for women</t>
-  </si>
-  <si>
-    <t>outfits sets for women</t>
-  </si>
-  <si>
-    <t>leggings sports</t>
-  </si>
-  <si>
-    <t>2 piece shirts</t>
-  </si>
-  <si>
-    <t>woman sports leggings</t>
-  </si>
-  <si>
-    <t>women t shirts sets</t>
-  </si>
-  <si>
-    <t>womens cropped shirts</t>
-  </si>
-  <si>
-    <t>womens workout toos</t>
-  </si>
-  <si>
-    <t>t shirt for women sport</t>
-  </si>
-  <si>
-    <t>workout shirt womens</t>
-  </si>
-  <si>
-    <t>woman sport top</t>
-  </si>
-  <si>
-    <t>womens t</t>
-  </si>
-  <si>
-    <t>woman tops for leggings</t>
-  </si>
-  <si>
-    <t>shirt for women leggings</t>
-  </si>
-  <si>
-    <t>woman set 2 pieces</t>
-  </si>
-  <si>
-    <t>t-shirt women</t>
-  </si>
-  <si>
-    <t>women's workout shirts</t>
-  </si>
-  <si>
-    <t>sport outfits</t>
-  </si>
-  <si>
-    <t>matching leggings and top women</t>
-  </si>
-  <si>
-    <t>workout top cropped</t>
-  </si>
-  <si>
-    <t>women top sets</t>
-  </si>
-  <si>
-    <t>exercise outfits for women</t>
-  </si>
-  <si>
-    <t>tops with leggings for women</t>
-  </si>
-  <si>
-    <t>2 piece legging sets for women</t>
-  </si>
-  <si>
-    <t>work out set</t>
-  </si>
-  <si>
-    <t>t shirts women</t>
-  </si>
-  <si>
-    <t>set 2 piece women</t>
-  </si>
-  <si>
-    <t>shirts for leggings for women</t>
-  </si>
-  <si>
-    <t>top sets for women</t>
-  </si>
-  <si>
-    <t>women yoga outfits</t>
-  </si>
-  <si>
-    <t>set of shirts for women</t>
-  </si>
-  <si>
-    <t>workout womens tops</t>
-  </si>
-  <si>
-    <t>shirts for women workout</t>
-  </si>
-  <si>
-    <t>leggings womens workout</t>
-  </si>
-  <si>
-    <t>2 piece outfit sets</t>
-  </si>
-  <si>
-    <t>boxing outfit women</t>
-  </si>
-  <si>
-    <t>shirt and leggings set for women</t>
-  </si>
-  <si>
-    <t>sweatsuit for women</t>
-  </si>
-  <si>
-    <t>top and leggings set for women</t>
-  </si>
-  <si>
-    <t>womens yoga outfit 2 piece</t>
-  </si>
-  <si>
-    <t>workout shirts</t>
-  </si>
-  <si>
-    <t>legging sets for women</t>
-  </si>
-  <si>
-    <t>workout shirt for women</t>
-  </si>
-  <si>
-    <t>leggings tops</t>
-  </si>
-  <si>
-    <t>womens sports leggings</t>
-  </si>
-  <si>
-    <t>sport tops for women</t>
-  </si>
-  <si>
-    <t>womens yoga outfits</t>
-  </si>
-  <si>
-    <t>women sports set</t>
-  </si>
-  <si>
-    <t>leggings outfit set for women</t>
-  </si>
-  <si>
-    <t>exercise outfits for women 2 piece set</t>
-  </si>
-  <si>
-    <t>womens work out set</t>
-  </si>
-  <si>
-    <t>cropped athletic tops for women</t>
-  </si>
-  <si>
-    <t>womens sports tshirts</t>
-  </si>
-  <si>
-    <t>matching gym outfits</t>
-  </si>
-  <si>
-    <t>womens yoga set</t>
-  </si>
-  <si>
-    <t>yoga leggings set for women</t>
-  </si>
-  <si>
-    <t>sweat pants outfits for women tight fit</t>
-  </si>
-  <si>
-    <t>workout set women</t>
-  </si>
-  <si>
-    <t>tights sets women 2 piece outfits</t>
-  </si>
-  <si>
-    <t>workout set for women 2 piece</t>
-  </si>
-  <si>
-    <t>workout outfits for women</t>
-  </si>
-  <si>
-    <t>leggings and top set for women</t>
-  </si>
-  <si>
-    <t>leggings set for women</t>
-  </si>
-  <si>
-    <t>workout clothes for women sets</t>
-  </si>
-  <si>
-    <t>yoga outfit seamless 2</t>
-  </si>
-  <si>
-    <t>leggings outfits for women 2 piece set</t>
-  </si>
-  <si>
-    <t>seamless set</t>
-  </si>
-  <si>
-    <t>sports tshirts women</t>
-  </si>
-  <si>
-    <t>matching sweatsuit women</t>
-  </si>
-  <si>
-    <t>womens work outfits sets</t>
-  </si>
-  <si>
-    <t>women workout</t>
-  </si>
-  <si>
-    <t>nylon tops for women</t>
-  </si>
-  <si>
-    <t>seamless shirts for women</t>
-  </si>
-  <si>
-    <t>sport leggings</t>
-  </si>
-  <si>
-    <t>2 piece outfits</t>
+    <t>high waisted clothes for women</t>
   </si>
 </sst>
 </file>
@@ -300,17 +51,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -332,14 +83,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -623,491 +374,325 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection sqref="A1:A87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A5" s="1"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A6" s="1"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A7" s="1"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A9" s="1"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A10" s="1"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A13" s="1"/>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A14" s="1"/>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A15" s="2"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="A17" s="2"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A18" s="2"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A19" s="2"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A20" s="2"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A21" s="2"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A22" s="2"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="A23" s="2"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="A24" s="2"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A25" s="2"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="A26" s="2"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="A27" s="2"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A28" s="2"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A29" s="2"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A30" s="2"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A31" s="2"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="A32" s="2"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A33" s="2"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="A34" s="2"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="A35" s="2"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="A36" s="2"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="A37" s="2"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="A38" s="2"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A39" s="2"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="A40" s="2"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="A41" s="2"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="A42" s="2"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="A43" s="2"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="A44" s="2"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="A45" s="2"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="A46" s="2"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="A47" s="2"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="A48" s="2"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="A49" s="2"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="A50" s="2"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="A51" s="2"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="A52" s="2"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="A53" s="2"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="A54" s="2"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="A55" s="2"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="A56" s="2"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="A57" s="2"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="A58" s="2"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="A59" s="2"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="A60" s="2"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="A61" s="2"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="A62" s="2"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="A63" s="2"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="A64" s="2"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="A65" s="2"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="A66" s="2"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="A67" s="2"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="A68" s="2"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="A69" s="2"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="A70" s="2"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="A71" s="2"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="A72" s="2"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="A73" s="2"/>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="A74" s="2"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="A75" s="2"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="A76" s="2"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="A77" s="2"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="A78" s="2"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="A79" s="2"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="A80" s="2"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="A81" s="2"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="A82" s="2"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="A83" s="2"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="A84" s="2"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="A85" s="2"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="A86" s="2"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="A87" s="2"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" s="1"/>
+      <c r="A88" s="2"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" s="1"/>
+      <c r="A89" s="2"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" s="1"/>
+      <c r="A90" s="2"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" s="1"/>
+      <c r="A91" s="2"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" s="1"/>
+      <c r="A92" s="2"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" s="1"/>
+      <c r="A93" s="2"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" s="1"/>
+      <c r="A94" s="2"/>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" s="1"/>
+      <c r="A95" s="2"/>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" s="1"/>
+      <c r="A96" s="2"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="1"/>
+      <c r="A97" s="2"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="1"/>
+      <c r="A98" s="2"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="1"/>
+      <c r="A99" s="2"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="1"/>
+      <c r="A100" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="B08K4353V1" sheetId="1" r:id="rId1"/>
+    <sheet name="B08K42K3DM" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,12 +24,306 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>purple sweat suit for women</t>
-  </si>
-  <si>
-    <t>mesh high waisted leggings</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+  <si>
+    <t>gym clothe set</t>
+  </si>
+  <si>
+    <t>yoga clothe set</t>
+  </si>
+  <si>
+    <t>legging yoga workout</t>
+  </si>
+  <si>
+    <t>gym workout clothe</t>
+  </si>
+  <si>
+    <t>seamless gym set</t>
+  </si>
+  <si>
+    <t>yoga bra legging set</t>
+  </si>
+  <si>
+    <t>seamless workout yoga bra</t>
+  </si>
+  <si>
+    <t>bra legging workout set</t>
+  </si>
+  <si>
+    <t>womens yoga set</t>
+  </si>
+  <si>
+    <t>leggings sport for women</t>
+  </si>
+  <si>
+    <t>skinny sport leggings</t>
+  </si>
+  <si>
+    <t>sport clothes for women</t>
+  </si>
+  <si>
+    <t>women workout sets</t>
+  </si>
+  <si>
+    <t>womens high waisted leggings</t>
+  </si>
+  <si>
+    <t>high waisted yoga leggings</t>
+  </si>
+  <si>
+    <t>work out clothing sets</t>
+  </si>
+  <si>
+    <t>sport leggings</t>
+  </si>
+  <si>
+    <t>gym clothes women</t>
+  </si>
+  <si>
+    <t>exercise clothes for women</t>
+  </si>
+  <si>
+    <t>workout clothes for women</t>
+  </si>
+  <si>
+    <t>basketball leggings for girls</t>
+  </si>
+  <si>
+    <t>exercise set for women</t>
+  </si>
+  <si>
+    <t>seamless leggings for women</t>
+  </si>
+  <si>
+    <t>workout sets for women</t>
+  </si>
+  <si>
+    <t>fishnet pants</t>
+  </si>
+  <si>
+    <t>yoga woman clothes</t>
+  </si>
+  <si>
+    <t>exercise clothes for women set</t>
+  </si>
+  <si>
+    <t>basketball compression pants women</t>
+  </si>
+  <si>
+    <t>tights for women workout</t>
+  </si>
+  <si>
+    <t>lingerie leggings</t>
+  </si>
+  <si>
+    <t>butt lifting jeggings</t>
+  </si>
+  <si>
+    <t>purple tights women</t>
+  </si>
+  <si>
+    <t>activewear sets for women</t>
+  </si>
+  <si>
+    <t>sport leggings women</t>
+  </si>
+  <si>
+    <t>tights basketball</t>
+  </si>
+  <si>
+    <t>women basketball pants</t>
+  </si>
+  <si>
+    <t>gym sets</t>
+  </si>
+  <si>
+    <t>womens high waisted joggers</t>
+  </si>
+  <si>
+    <t>girls underwear bra set</t>
+  </si>
+  <si>
+    <t>fishnet jeans</t>
+  </si>
+  <si>
+    <t>fishnet set</t>
+  </si>
+  <si>
+    <t>butt lifting jeans</t>
+  </si>
+  <si>
+    <t>womans clothes</t>
+  </si>
+  <si>
+    <t>clothes sport</t>
+  </si>
+  <si>
+    <t>purple wash cloths</t>
+  </si>
+  <si>
+    <t>women gym clothes</t>
+  </si>
+  <si>
+    <t>yoga bras for women</t>
+  </si>
+  <si>
+    <t>womens workout clothes sets</t>
+  </si>
+  <si>
+    <t>purple bra set</t>
+  </si>
+  <si>
+    <t>women's gym clothes</t>
+  </si>
+  <si>
+    <t>purple n</t>
+  </si>
+  <si>
+    <t>high waisted yoga set</t>
+  </si>
+  <si>
+    <t>seamless high waisted legging</t>
+  </si>
+  <si>
+    <t>sport legging high waisted</t>
+  </si>
+  <si>
+    <t>legging sport bra</t>
+  </si>
+  <si>
+    <t>yoga set legging bra</t>
+  </si>
+  <si>
+    <t>purple seamless legging</t>
+  </si>
+  <si>
+    <t>workout clothes set for women gym</t>
+  </si>
+  <si>
+    <t>work out set</t>
+  </si>
+  <si>
+    <t>fishnet leggings lingerie for women</t>
+  </si>
+  <si>
+    <t>workout ready seamless sports bra</t>
+  </si>
+  <si>
+    <t>leggings and sports bra set</t>
+  </si>
+  <si>
+    <t>purple high waisted leggings</t>
+  </si>
+  <si>
+    <t>high waisted fishnets</t>
+  </si>
+  <si>
+    <t>workout set women</t>
+  </si>
+  <si>
+    <t>workout equipment sets for women</t>
+  </si>
+  <si>
+    <t>womens workout clothes sports bra</t>
+  </si>
+  <si>
+    <t>high waisted denim leggings for women</t>
+  </si>
+  <si>
+    <t>dance leggings for women</t>
+  </si>
+  <si>
+    <t>womans athletic bras</t>
+  </si>
+  <si>
+    <t>workout yoga for women</t>
+  </si>
+  <si>
+    <t>purple sports bra</t>
+  </si>
+  <si>
+    <t>purple cloth for cross</t>
+  </si>
+  <si>
+    <t>yoga work out set</t>
+  </si>
+  <si>
+    <t>sport leggings high waisted</t>
+  </si>
+  <si>
+    <t>yoga leggings set for women</t>
+  </si>
+  <si>
+    <t>sports bra leggings set</t>
+  </si>
+  <si>
+    <t>cross strap sex</t>
+  </si>
+  <si>
+    <t>jeggings set for women</t>
+  </si>
+  <si>
+    <t>studio joggers</t>
+  </si>
+  <si>
+    <t>womens work out set</t>
+  </si>
+  <si>
+    <t>sports bra and leggings</t>
+  </si>
+  <si>
+    <t>bra gym</t>
+  </si>
+  <si>
+    <t>woman sport clothes set</t>
+  </si>
+  <si>
+    <t>female gym clothes</t>
+  </si>
+  <si>
+    <t>gym set clothing</t>
+  </si>
+  <si>
+    <t>leggings gym</t>
+  </si>
+  <si>
+    <t>athletic sets for women</t>
+  </si>
+  <si>
+    <t>yoga sets for women clothing</t>
+  </si>
+  <si>
+    <t>women sex clothes</t>
+  </si>
+  <si>
+    <t>yoga sets</t>
+  </si>
+  <si>
+    <t>girls sports leggings</t>
+  </si>
+  <si>
+    <t>womens highwaisted joggers</t>
+  </si>
+  <si>
+    <t>high waisted leggings dance</t>
+  </si>
+  <si>
+    <t>female workout leggings</t>
+  </si>
+  <si>
+    <t>ladies sports leggings</t>
+  </si>
+  <si>
+    <t>boxing set for women</t>
+  </si>
+  <si>
+    <t>belly dance set</t>
+  </si>
+  <si>
+    <t>legging sport</t>
+  </si>
+  <si>
+    <t>legging sets for women</t>
   </si>
 </sst>
 </file>
@@ -53,11 +347,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -77,18 +369,51 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -395,325 +720,518 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection sqref="A1:A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
+    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
+      <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
+      <c r="A32" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
+      <c r="A33" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
+      <c r="A34" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
+      <c r="A35" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
+      <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
+      <c r="A37" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
+      <c r="A38" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
+      <c r="A39" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
+      <c r="A40" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
+      <c r="A41" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
+      <c r="A42" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
+      <c r="A43" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
+      <c r="A44" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
+      <c r="A45" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
+      <c r="A46" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
+      <c r="A47" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
+      <c r="A48" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1"/>
+      <c r="A49" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
+      <c r="A50" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1"/>
+      <c r="A51" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1"/>
+      <c r="A52" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="1"/>
+      <c r="A53" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="1"/>
+      <c r="A54" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="1"/>
+      <c r="A55" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="1"/>
+      <c r="A56" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="1"/>
+      <c r="A57" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="1"/>
+      <c r="A58" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="1"/>
+      <c r="A59" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="1"/>
+      <c r="A60" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="1"/>
+      <c r="A61" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="1"/>
+      <c r="A62" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="1"/>
+      <c r="A63" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" s="1"/>
+      <c r="A64" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="1"/>
+      <c r="A65" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="1"/>
+      <c r="A66" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="1"/>
+      <c r="A67" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" s="1"/>
+      <c r="A68" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="1"/>
+      <c r="A69" s="3" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="1"/>
+      <c r="A70" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="1"/>
+      <c r="A71" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="1"/>
+      <c r="A72" s="3" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="1"/>
+      <c r="A73" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="1"/>
+      <c r="A74" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="1"/>
+      <c r="A75" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="1"/>
+      <c r="A76" s="3" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="1"/>
+      <c r="A77" s="3" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="1"/>
+      <c r="A78" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" s="1"/>
+      <c r="A79" s="3" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" s="1"/>
+      <c r="A80" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="1"/>
+      <c r="A81" s="3" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="1"/>
+      <c r="A82" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="1"/>
+      <c r="A83" s="3" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" s="1"/>
+      <c r="A84" s="3" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" s="1"/>
+      <c r="A85" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" s="1"/>
+      <c r="A86" s="3" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" s="1"/>
+      <c r="A87" s="3" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" s="1"/>
+      <c r="A88" s="3" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" s="1"/>
+      <c r="A89" s="3" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" s="1"/>
+      <c r="A90" s="3" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" s="1"/>
+      <c r="A91" s="3" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" s="1"/>
+      <c r="A92" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" s="1"/>
+      <c r="A93" s="3" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" s="1"/>
+      <c r="A94" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" s="1"/>
+      <c r="A95" s="3" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" s="1"/>
+      <c r="A96" s="3" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="1"/>
+      <c r="A97" s="3" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="1"/>
+      <c r="A98" s="3" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="1"/>
+      <c r="A99" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="1"/>
+      <c r="A100" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A101:A107">
-    <cfRule type="duplicateValues" dxfId="3" priority="8"/>
+  <conditionalFormatting sqref="A73:A100">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:A9">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A2">
+  <conditionalFormatting sqref="A1:A72">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\READYPARD-VM\readypard\github\indexed\keyword\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\git\kw-rank\keyword\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0F4C1F-7EC0-42B6-AC65-772B00CBE57F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B08K42K3DM" sheetId="1" r:id="rId1"/>
@@ -24,24 +25,312 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>leggings sets</t>
-  </si>
-  <si>
-    <t>high waisted joggers for women</t>
-  </si>
-  <si>
-    <t>womens sweater sets</t>
-  </si>
-  <si>
-    <t>high waisted clothes for women</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+  <si>
+    <t>purple yoga</t>
+  </si>
+  <si>
+    <t>purple workout</t>
+  </si>
+  <si>
+    <t>gym sport bra</t>
+  </si>
+  <si>
+    <t>purple set</t>
+  </si>
+  <si>
+    <t>high waisted set</t>
+  </si>
+  <si>
+    <t>workout legging set</t>
+  </si>
+  <si>
+    <t>purple workout set</t>
+  </si>
+  <si>
+    <t>high waisted workout set</t>
+  </si>
+  <si>
+    <t>high bra</t>
+  </si>
+  <si>
+    <t>seamless yoga set</t>
+  </si>
+  <si>
+    <t>purple high waisted legging</t>
+  </si>
+  <si>
+    <t>purple workout legging</t>
+  </si>
+  <si>
+    <t>yoga clothe</t>
+  </si>
+  <si>
+    <t>seamless workout clothe</t>
+  </si>
+  <si>
+    <t>sport yoga legging</t>
+  </si>
+  <si>
+    <t>high waisted sport legging</t>
+  </si>
+  <si>
+    <t>high legging</t>
+  </si>
+  <si>
+    <t>seamless high waisted workout legging</t>
+  </si>
+  <si>
+    <t>high waisted yoga legging</t>
+  </si>
+  <si>
+    <t>legging bra</t>
+  </si>
+  <si>
+    <t>legging sport bra set</t>
+  </si>
+  <si>
+    <t>seamless gym legging</t>
+  </si>
+  <si>
+    <t>workout legging sport bra set</t>
+  </si>
+  <si>
+    <t>seamless workout bra</t>
+  </si>
+  <si>
+    <t>apparel bra</t>
+  </si>
+  <si>
+    <t>high yoga legging</t>
+  </si>
+  <si>
+    <t>sport bra legging</t>
+  </si>
+  <si>
+    <t>yoga workout clothe</t>
+  </si>
+  <si>
+    <t>clothe legging</t>
+  </si>
+  <si>
+    <t>seamless sports bra</t>
+  </si>
+  <si>
+    <t>seamless workout leggings</t>
+  </si>
+  <si>
+    <t>gym leggings for women</t>
+  </si>
+  <si>
+    <t>sports leggings for women</t>
+  </si>
+  <si>
+    <t>womens workout sports bra</t>
+  </si>
+  <si>
+    <t>high waisted workout leggings for womens</t>
+  </si>
+  <si>
+    <t>high n</t>
+  </si>
+  <si>
+    <t>yoga legging sport bra set</t>
+  </si>
+  <si>
+    <t>gym clothes for women sets</t>
+  </si>
+  <si>
+    <t>bra set</t>
+  </si>
+  <si>
+    <t>sport legging</t>
+  </si>
+  <si>
+    <t>yoga workout set</t>
+  </si>
+  <si>
+    <t>sport set</t>
+  </si>
+  <si>
+    <t>gym bra</t>
+  </si>
+  <si>
+    <t>gym set</t>
+  </si>
+  <si>
+    <t>yoga apparel</t>
+  </si>
+  <si>
+    <t>purple bra</t>
+  </si>
+  <si>
+    <t>purple legging</t>
+  </si>
+  <si>
+    <t>high waisted legging</t>
+  </si>
+  <si>
+    <t>high waisted</t>
+  </si>
+  <si>
+    <t>sport gym</t>
+  </si>
+  <si>
+    <t>yoga sport</t>
+  </si>
+  <si>
+    <t>clothe set</t>
+  </si>
+  <si>
+    <t>high waisted yoga</t>
+  </si>
+  <si>
+    <t>yoga sport bra</t>
+  </si>
+  <si>
+    <t>high waisted workout legging</t>
+  </si>
+  <si>
+    <t>seamless legging</t>
+  </si>
+  <si>
+    <t>seamless workout</t>
+  </si>
+  <si>
+    <t>purple sport bra</t>
+  </si>
+  <si>
+    <t>workout sport bra</t>
+  </si>
+  <si>
+    <t>seamless sport bra</t>
+  </si>
+  <si>
+    <t>sport clothe</t>
+  </si>
+  <si>
+    <t>gym legging</t>
+  </si>
+  <si>
+    <t>high waisted legging set</t>
+  </si>
+  <si>
+    <t>clothe bra</t>
+  </si>
+  <si>
+    <t>high yoga</t>
+  </si>
+  <si>
+    <t>seamless set</t>
+  </si>
+  <si>
+    <t>seamless legging set</t>
+  </si>
+  <si>
+    <t>purple clothe</t>
+  </si>
+  <si>
+    <t>workout clothe set</t>
+  </si>
+  <si>
+    <t>gym clothe</t>
+  </si>
+  <si>
+    <t>seamless workout legging</t>
+  </si>
+  <si>
+    <t>high waisted gym legging</t>
+  </si>
+  <si>
+    <t>high waisted seamless legging</t>
+  </si>
+  <si>
+    <t>seamless yoga legging</t>
+  </si>
+  <si>
+    <t>lingerie high waisted set</t>
+  </si>
+  <si>
+    <t>butt lifting jeggings for women</t>
+  </si>
+  <si>
+    <t>fishnet bra</t>
+  </si>
+  <si>
+    <t>workout sports bras for women</t>
+  </si>
+  <si>
+    <t>sports bra sets for women</t>
+  </si>
+  <si>
+    <t>purple leggings for women</t>
+  </si>
+  <si>
+    <t>t bra</t>
+  </si>
+  <si>
+    <t>leggings for women set</t>
+  </si>
+  <si>
+    <t>fishnet leggings for women</t>
+  </si>
+  <si>
+    <t>seamless leggings high waisted</t>
+  </si>
+  <si>
+    <t>womens workout leggings high waisted</t>
+  </si>
+  <si>
+    <t>workout sweaters for women</t>
+  </si>
+  <si>
+    <t>sport apparel</t>
+  </si>
+  <si>
+    <t>seamless bra set</t>
+  </si>
+  <si>
+    <t>gym workout set</t>
+  </si>
+  <si>
+    <t>yoga set purple</t>
+  </si>
+  <si>
+    <t>seamless yoga bra</t>
+  </si>
+  <si>
+    <t>seamless yoga</t>
+  </si>
+  <si>
+    <t>yoga legging set</t>
+  </si>
+  <si>
+    <t>yoga bra set</t>
+  </si>
+  <si>
+    <t>high sport bra</t>
+  </si>
+  <si>
+    <t>high waisted workout</t>
+  </si>
+  <si>
+    <t>gym apparel</t>
+  </si>
+  <si>
+    <t>sport workout</t>
+  </si>
+  <si>
+    <t>n set</t>
+  </si>
+  <si>
+    <t>ready set</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -85,18 +374,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{04298993-45F5-49CD-8209-14B74468EE7A}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -371,328 +665,520 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection sqref="A1:A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="65.75" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="2"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="2"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="2"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="2"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="2"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="2"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="2"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="2"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="2"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" s="2"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="2"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="2"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="2"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" s="2"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="2"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="2"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="2"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="2"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="2"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="2"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="2"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="2"/>
-    </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="2"/>
+      <c r="A77" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="2"/>
+      <c r="A78" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" s="2"/>
+      <c r="A79" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" s="2"/>
+      <c r="A80" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="2"/>
+      <c r="A81" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="2"/>
+      <c r="A82" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="2"/>
+      <c r="A83" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" s="2"/>
+      <c r="A84" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" s="2"/>
+      <c r="A85" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" s="2"/>
+      <c r="A86" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" s="2"/>
+      <c r="A87" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" s="2"/>
+      <c r="A88" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" s="2"/>
+      <c r="A89" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" s="2"/>
+      <c r="A90" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" s="2"/>
+      <c r="A91" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" s="2"/>
+      <c r="A92" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" s="2"/>
+      <c r="A93" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" s="2"/>
+      <c r="A94" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" s="2"/>
+      <c r="A95" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" s="2"/>
+      <c r="A96" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="2"/>
+      <c r="A97" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="2"/>
+      <c r="A98" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="2"/>
+      <c r="A99" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="2"/>
+      <c r="A100" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A100">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\READYPARD-VM\readypard\github\indexed\keyword\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\git\kw-rank\keyword\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E502225-C8B8-414A-964D-C1D5A265C3B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="B08K44C9Y9" sheetId="1" r:id="rId1"/>
+    <sheet name="B08K4353V1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,310 +27,310 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
-    <t>yoga workout top</t>
-  </si>
-  <si>
-    <t>t shirt set</t>
-  </si>
-  <si>
-    <t>sport apparel</t>
-  </si>
-  <si>
-    <t>cropped t</t>
-  </si>
-  <si>
-    <t>workout 2 piece</t>
-  </si>
-  <si>
-    <t>2 piece yoga set</t>
-  </si>
-  <si>
-    <t>yoga legging set</t>
-  </si>
-  <si>
-    <t>top t shirt</t>
-  </si>
-  <si>
-    <t>2 piece yoga outfit</t>
-  </si>
-  <si>
-    <t>sport workout</t>
-  </si>
-  <si>
-    <t>apparel shirt</t>
-  </si>
-  <si>
-    <t>cropped workout shirt</t>
-  </si>
-  <si>
-    <t>yoga 2</t>
-  </si>
-  <si>
-    <t>workout top set</t>
-  </si>
-  <si>
-    <t>t set</t>
-  </si>
-  <si>
-    <t>t piece</t>
-  </si>
-  <si>
-    <t>t sport</t>
-  </si>
-  <si>
-    <t>2 piece set outfit</t>
-  </si>
-  <si>
-    <t>2 piece legging set</t>
-  </si>
-  <si>
-    <t>2 piece workout outfit</t>
-  </si>
-  <si>
-    <t>2 t shirt</t>
-  </si>
-  <si>
-    <t>ready set</t>
-  </si>
-  <si>
-    <t>apparel t shirt</t>
-  </si>
-  <si>
-    <t>legging top set</t>
-  </si>
-  <si>
-    <t>workout legging set</t>
-  </si>
-  <si>
-    <t>cropped workout</t>
-  </si>
-  <si>
-    <t>yoga legging cropped</t>
-  </si>
-  <si>
-    <t>yoga set 2</t>
-  </si>
-  <si>
-    <t>ready 2</t>
-  </si>
-  <si>
-    <t>yoga 2 piece</t>
-  </si>
-  <si>
-    <t>t shirt legging</t>
-  </si>
-  <si>
-    <t>apparel t</t>
-  </si>
-  <si>
-    <t>sport 2</t>
-  </si>
-  <si>
-    <t>workout t</t>
-  </si>
-  <si>
-    <t>sport yoga legging</t>
-  </si>
-  <si>
-    <t>yoga outfit 2 piece set</t>
-  </si>
-  <si>
-    <t>yoga legging top set</t>
-  </si>
-  <si>
-    <t>2 top</t>
-  </si>
-  <si>
-    <t>legging yoga workout</t>
-  </si>
-  <si>
-    <t>workout legging top set</t>
-  </si>
-  <si>
-    <t>yoga t</t>
-  </si>
-  <si>
-    <t>yoga top legging</t>
-  </si>
-  <si>
-    <t>t legging</t>
-  </si>
-  <si>
-    <t>women shirts for leggings</t>
-  </si>
-  <si>
-    <t>cropped t shirts for women</t>
-  </si>
-  <si>
-    <t>workout outfits for women 2 piece</t>
-  </si>
-  <si>
-    <t>yoga outfits for women set</t>
-  </si>
-  <si>
-    <t>womens t shirts for leggings</t>
-  </si>
-  <si>
-    <t>top and legging set</t>
-  </si>
-  <si>
-    <t>tops for women set</t>
-  </si>
-  <si>
-    <t>2 piece legging workout set</t>
-  </si>
-  <si>
-    <t>cropped tops</t>
-  </si>
-  <si>
-    <t>workout sets for women 2 piece</t>
-  </si>
-  <si>
-    <t>tights suits for women 2 piece</t>
-  </si>
-  <si>
-    <t>cropped yoga pants</t>
-  </si>
-  <si>
-    <t>seamless workout sets for women 2 piece</t>
-  </si>
-  <si>
-    <t>t shirt sport women</t>
-  </si>
-  <si>
-    <t>workout sets for women</t>
-  </si>
-  <si>
-    <t>workout tops</t>
-  </si>
-  <si>
-    <t>leggings sport for women</t>
+    <t>jeggings set for women</t>
+  </si>
+  <si>
+    <t>basketball sweatsuit</t>
+  </si>
+  <si>
+    <t>work out outfit</t>
+  </si>
+  <si>
+    <t>green muscle leggings</t>
+  </si>
+  <si>
+    <t>sexy stretch denim high waist</t>
+  </si>
+  <si>
+    <t>green belly dance top</t>
+  </si>
+  <si>
+    <t>legging set</t>
+  </si>
+  <si>
+    <t>basketball tights for girls</t>
+  </si>
+  <si>
+    <t>yoga set</t>
+  </si>
+  <si>
+    <t>highwaist leggings</t>
+  </si>
+  <si>
+    <t>yoga ball green</t>
+  </si>
+  <si>
+    <t>girls slim jeans size 10</t>
+  </si>
+  <si>
+    <t>dark green leggings</t>
+  </si>
+  <si>
+    <t>dance booties for women</t>
+  </si>
+  <si>
+    <t>yoga work out set</t>
+  </si>
+  <si>
+    <t>workout outfits</t>
+  </si>
+  <si>
+    <t>dance outfits for women</t>
+  </si>
+  <si>
+    <t>butt lifting jeggings for women</t>
+  </si>
+  <si>
+    <t>90 styles clothing for women</t>
+  </si>
+  <si>
+    <t>purple outfits for women</t>
+  </si>
+  <si>
+    <t>belly dance vest</t>
+  </si>
+  <si>
+    <t>belly dance bra</t>
+  </si>
+  <si>
+    <t>sports bra set</t>
+  </si>
+  <si>
+    <t>sports bra and leggings set for women</t>
+  </si>
+  <si>
+    <t>metallic green leggings</t>
+  </si>
+  <si>
+    <t>zero restriction vest</t>
+  </si>
+  <si>
+    <t>3 pc outfit for women</t>
+  </si>
+  <si>
+    <t>green workout leggings for women</t>
+  </si>
+  <si>
+    <t>black out silhouettes then and now</t>
+  </si>
+  <si>
+    <t>black seamless leggings for women</t>
+  </si>
+  <si>
+    <t>yoga pants cropped</t>
+  </si>
+  <si>
+    <t>yoga jeggings</t>
+  </si>
+  <si>
+    <t>dance equipment</t>
+  </si>
+  <si>
+    <t>skinny wraps</t>
+  </si>
+  <si>
+    <t>fashionable workout clothes for women</t>
+  </si>
+  <si>
+    <t>workout gear for women</t>
+  </si>
+  <si>
+    <t>denim camisole</t>
+  </si>
+  <si>
+    <t>boxing equipment for girls</t>
+  </si>
+  <si>
+    <t>exercise sets for women</t>
+  </si>
+  <si>
+    <t>green jeggings women</t>
+  </si>
+  <si>
+    <t>green denim vest</t>
+  </si>
+  <si>
+    <t>purple leggings</t>
+  </si>
+  <si>
+    <t>metallic outfit</t>
+  </si>
+  <si>
+    <t>2 pc legging set for women</t>
+  </si>
+  <si>
+    <t>workout items for women</t>
+  </si>
+  <si>
+    <t>yoga outfit</t>
+  </si>
+  <si>
+    <t>women workout sets</t>
+  </si>
+  <si>
+    <t>bra and tight set</t>
+  </si>
+  <si>
+    <t>denim outfits for women sexy</t>
+  </si>
+  <si>
+    <t>muscle stretch</t>
+  </si>
+  <si>
+    <t>high waist jean leggings</t>
+  </si>
+  <si>
+    <t>dance skins for women</t>
   </si>
   <si>
     <t>womens workout sets</t>
   </si>
   <si>
-    <t>sports tops for women</t>
-  </si>
-  <si>
-    <t>workout tops women</t>
-  </si>
-  <si>
-    <t>womans workout shirts</t>
-  </si>
-  <si>
-    <t>yoga sets for women 2 piece</t>
-  </si>
-  <si>
-    <t>cropped workout tops for women</t>
-  </si>
-  <si>
-    <t>workout leggings with stripes</t>
-  </si>
-  <si>
-    <t>sporty outfit for women</t>
-  </si>
-  <si>
-    <t>tennis outfits for women</t>
-  </si>
-  <si>
-    <t>leggings for women set</t>
-  </si>
-  <si>
-    <t>womens workout outfits sets</t>
-  </si>
-  <si>
-    <t>2 piece outfit set</t>
-  </si>
-  <si>
-    <t>workout sets for women cheap</t>
-  </si>
-  <si>
-    <t>womens workout tops</t>
+    <t>skinny workout pants</t>
+  </si>
+  <si>
+    <t>green metallic leggings</t>
+  </si>
+  <si>
+    <t>yoga outfit seamless 2</t>
+  </si>
+  <si>
+    <t>nineties clothing for women</t>
+  </si>
+  <si>
+    <t>legging sets for women outfits</t>
+  </si>
+  <si>
+    <t>exercise clothing for women</t>
   </si>
   <si>
     <t>nylon leggings for women</t>
   </si>
   <si>
-    <t>n shirt</t>
-  </si>
-  <si>
-    <t>cropped set</t>
-  </si>
-  <si>
-    <t>legging shirt set</t>
-  </si>
-  <si>
-    <t>legging outfit set</t>
-  </si>
-  <si>
-    <t>workout set legging top</t>
-  </si>
-  <si>
-    <t>boxing outfit sets women</t>
-  </si>
-  <si>
-    <t>cropped leggings</t>
-  </si>
-  <si>
-    <t>cropped leggings for women</t>
-  </si>
-  <si>
-    <t>womens sets</t>
-  </si>
-  <si>
-    <t>2 shirt</t>
-  </si>
-  <si>
-    <t>n set</t>
-  </si>
-  <si>
-    <t>2 t</t>
-  </si>
-  <si>
-    <t>t n</t>
-  </si>
-  <si>
-    <t>women workout tops</t>
-  </si>
-  <si>
-    <t>leggings outfit for women</t>
-  </si>
-  <si>
-    <t>2 piece yoga sets for women</t>
-  </si>
-  <si>
-    <t>exercise sets for women 2 piece</t>
-  </si>
-  <si>
-    <t>sets for women</t>
-  </si>
-  <si>
-    <t>two piece sweatsuits for women</t>
-  </si>
-  <si>
-    <t>workout tops for women pack</t>
-  </si>
-  <si>
-    <t>boxing set for women</t>
-  </si>
-  <si>
-    <t>cropped workout leggings for women</t>
-  </si>
-  <si>
-    <t>sweatsuits for women two piece</t>
-  </si>
-  <si>
-    <t>yoga outfits for women</t>
-  </si>
-  <si>
-    <t>work out sets</t>
+    <t>highwaist leggings for women</t>
+  </si>
+  <si>
+    <t>girls exercise pants</t>
+  </si>
+  <si>
+    <t>outfits for women</t>
+  </si>
+  <si>
+    <t>basketball pants girls</t>
+  </si>
+  <si>
+    <t>exercise outfits for women</t>
+  </si>
+  <si>
+    <t>dance skins</t>
+  </si>
+  <si>
+    <t>jeggings for women high waist</t>
+  </si>
+  <si>
+    <t>metallic pants women</t>
+  </si>
+  <si>
+    <t>seamless workout set</t>
+  </si>
+  <si>
+    <t>skinnies outfit</t>
+  </si>
+  <si>
+    <t>girls sexys butt</t>
+  </si>
+  <si>
+    <t>belly dance pants for girls</t>
+  </si>
+  <si>
+    <t>yoga vests for women</t>
+  </si>
+  <si>
+    <t>90 nylon 10 spandex leggings</t>
+  </si>
+  <si>
+    <t>pilates wrap</t>
+  </si>
+  <si>
+    <t>work out set</t>
+  </si>
+  <si>
+    <t>high waist jeggings for women stretch</t>
+  </si>
+  <si>
+    <t>cute booty lounge leggings</t>
+  </si>
+  <si>
+    <t>high waist jeggings for women</t>
+  </si>
+  <si>
+    <t>high waist compression jeggings</t>
+  </si>
+  <si>
+    <t>high waisted dance leggings for women</t>
+  </si>
+  <si>
+    <t>waist pack for women</t>
+  </si>
+  <si>
+    <t>girls dance sports bra</t>
+  </si>
+  <si>
+    <t>exercise outfit for women</t>
+  </si>
+  <si>
+    <t>spandex sweatsuit women</t>
+  </si>
+  <si>
+    <t>gym wrap</t>
+  </si>
+  <si>
+    <t>metallic leggings for women</t>
+  </si>
+  <si>
+    <t>wrap bra</t>
+  </si>
+  <si>
+    <t>metallic spandex fabric</t>
+  </si>
+  <si>
+    <t>butt set</t>
+  </si>
+  <si>
+    <t>womens purple sweatsuit</t>
+  </si>
+  <si>
+    <t>womens dance leggings</t>
+  </si>
+  <si>
+    <t>womens work outfits sets</t>
+  </si>
+  <si>
+    <t>dance tights for girls</t>
+  </si>
+  <si>
+    <t>yoga pants enhance butt</t>
+  </si>
+  <si>
+    <t>small girls sports bra</t>
+  </si>
+  <si>
+    <t>green jeggings</t>
+  </si>
+  <si>
+    <t>womens jeggings high waist</t>
+  </si>
+  <si>
+    <t>sports bras set</t>
+  </si>
+  <si>
+    <t>purple boxing wraps</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -341,8 +342,10 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -360,7 +363,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -368,114 +371,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -758,17 +674,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection sqref="A1:A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="37.125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -827,462 +740,453 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>51</v>
+      <c r="A56" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>52</v>
+      <c r="A57" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>53</v>
+      <c r="A58" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>54</v>
+      <c r="A59" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>55</v>
+      <c r="A60" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>56</v>
+      <c r="A61" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>57</v>
+      <c r="A62" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>58</v>
+      <c r="A63" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>59</v>
+      <c r="A64" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>60</v>
+      <c r="A65" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>61</v>
+      <c r="A66" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>62</v>
+      <c r="A67" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>63</v>
+      <c r="A68" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>64</v>
+      <c r="A69" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>65</v>
+      <c r="A70" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>66</v>
+      <c r="A71" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>67</v>
+      <c r="A72" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>68</v>
+      <c r="A73" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>69</v>
+      <c r="A74" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>70</v>
+      <c r="A75" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>71</v>
+      <c r="A76" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>72</v>
+      <c r="A77" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
-        <v>73</v>
+      <c r="A78" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
-        <v>74</v>
+      <c r="A79" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
-        <v>75</v>
+      <c r="A80" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
-        <v>76</v>
+      <c r="A81" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
-        <v>77</v>
+      <c r="A82" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
-        <v>78</v>
+      <c r="A83" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
-        <v>79</v>
+      <c r="A84" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
-        <v>80</v>
+      <c r="A85" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
-        <v>81</v>
+      <c r="A86" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
-        <v>82</v>
+      <c r="A87" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
-        <v>83</v>
+      <c r="A88" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
+      <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
+      <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
+      <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
+      <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
+      <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
+      <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
+      <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
+      <c r="A98" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
+      <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
+      <c r="A100" s="1" t="s">
         <v>99</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A55 A70:A84 A89:A100">
-    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A59:A69">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A56:A58">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A1:A100">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
